--- a/data/trans_orig/P6602-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B094E2-D670-4B82-AD9F-CFBD318E1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B56534C-2FF2-4E0B-9B19-F227C07AE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4752503C-3579-4D5F-BB7C-E1A12251B8C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D27CCB3E-810F-43D2-913B-F55F52661273}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="570">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>31,32%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>16,13%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,28 +137,28 @@
     <t>36,71%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>13,47%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,1564 +167,1588 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7811E3AC-7398-48D1-8C43-7C47A380786E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FD98D-358C-4713-974D-B3547FD92EAB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3100,10 +3124,10 @@
         <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>548</v>
@@ -3112,13 +3136,13 @@
         <v>580877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3157,13 @@
         <v>494022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -3148,13 +3172,13 @@
         <v>68301</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3163,13 +3187,13 @@
         <v>562323</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3208,13 @@
         <v>161384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3199,13 +3223,13 @@
         <v>38711</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -3214,13 +3238,13 @@
         <v>200095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,7 +3286,7 @@
         <v>2807</v>
       </c>
       <c r="N23" s="7">
-        <v>2931925</v>
+        <v>2931924</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -3276,7 +3300,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F59145-C430-4B14-BEEF-ACA8652E7CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E76576-4EF4-4454-985C-0F939FF1FB03}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3312,7 +3336,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,13 +3443,13 @@
         <v>38228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -3434,13 +3458,13 @@
         <v>78714</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -3449,13 +3473,13 @@
         <v>116942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3494,13 @@
         <v>53240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3485,13 +3509,13 @@
         <v>37830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -3500,10 +3524,10 @@
         <v>91071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>179</v>
@@ -3590,10 +3614,10 @@
         <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -3602,13 +3626,13 @@
         <v>65151</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3700,7 @@
         <v>280886</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>198</v>
@@ -3688,7 +3712,7 @@
         <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>348304</v>
+        <v>348305</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>200</v>
@@ -3739,13 +3763,13 @@
         <v>122</v>
       </c>
       <c r="I10" s="7">
-        <v>130754</v>
+        <v>130755</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>210</v>
@@ -3760,10 +3784,10 @@
         <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3802,13 @@
         <v>229367</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3793,13 +3817,13 @@
         <v>44083</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -3808,13 +3832,13 @@
         <v>273450</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3853,7 @@
         <v>148959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>223</v>
@@ -3892,7 +3916,7 @@
         <v>534</v>
       </c>
       <c r="I13" s="7">
-        <v>571588</v>
+        <v>571589</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4122,7 +4146,7 @@
         <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4214,13 @@
         <v>513046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>546</v>
@@ -4205,13 +4229,13 @@
         <v>592394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M19" s="7">
         <v>1017</v>
@@ -4220,13 +4244,13 @@
         <v>1105440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4265,13 @@
         <v>381918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4256,28 +4280,28 @@
         <v>223454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>574</v>
       </c>
       <c r="N20" s="7">
-        <v>605373</v>
+        <v>605372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4316,13 @@
         <v>309195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -4307,13 +4331,13 @@
         <v>62876</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>351</v>
@@ -4322,13 +4346,13 @@
         <v>372071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4367,13 @@
         <v>206672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -4358,28 +4382,28 @@
         <v>67739</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
       </c>
       <c r="N22" s="7">
-        <v>274411</v>
+        <v>274410</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,7 +4415,7 @@
         <v>1324</v>
       </c>
       <c r="D23" s="7">
-        <v>1410831</v>
+        <v>1410830</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4421,7 +4445,7 @@
         <v>2198</v>
       </c>
       <c r="N23" s="7">
-        <v>2357294</v>
+        <v>2357293</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -4435,7 +4459,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B215AD-258E-44D2-ADFD-E8119AF9787C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85038A33-735E-4F1D-A3D2-DCCEB4A47A75}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4471,7 +4495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4578,13 +4602,13 @@
         <v>24996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4710,13 +4734,13 @@
         <v>39016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4755,13 @@
         <v>50942</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4746,13 +4770,13 @@
         <v>16894</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4761,13 +4785,13 @@
         <v>67836</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4859,13 @@
         <v>255176</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H9" s="7">
         <v>318</v>
@@ -4850,13 +4874,13 @@
         <v>320702</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M9" s="7">
         <v>559</v>
@@ -4865,13 +4889,13 @@
         <v>575877</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4910,13 @@
         <v>257963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -4904,10 +4928,10 @@
         <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>414</v>
@@ -4916,13 +4940,13 @@
         <v>437079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,10 +4961,10 @@
         <v>231446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>352</v>
@@ -5006,10 +5030,10 @@
         <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>216</v>
@@ -5018,13 +5042,13 @@
         <v>234252</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5116,13 @@
         <v>183570</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>194</v>
@@ -5107,13 +5131,13 @@
         <v>199185</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -5122,13 +5146,13 @@
         <v>382756</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5167,13 @@
         <v>111746</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>68</v>
@@ -5158,13 +5182,13 @@
         <v>69680</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>172</v>
@@ -5173,13 +5197,13 @@
         <v>181426</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5218,13 @@
         <v>35247</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5209,13 +5233,13 @@
         <v>25905</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5224,10 +5248,10 @@
         <v>61152</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>393</v>
@@ -5248,10 +5272,10 @@
         <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5260,13 +5284,13 @@
         <v>13683</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -5275,13 +5299,13 @@
         <v>31884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5373,13 @@
         <v>463743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>550</v>
@@ -5364,13 +5388,13 @@
         <v>557928</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>980</v>
@@ -5379,13 +5403,13 @@
         <v>1021670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5424,13 @@
         <v>401639</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -5415,13 +5439,13 @@
         <v>259032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
@@ -5430,13 +5454,13 @@
         <v>660671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5475,13 @@
         <v>298792</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -5466,13 +5490,13 @@
         <v>125510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -5481,13 +5505,13 @@
         <v>424301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5526,13 @@
         <v>246031</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5517,13 +5541,13 @@
         <v>87941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -5532,13 +5556,13 @@
         <v>333972</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5618,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6A6C25-EE07-40C7-AF7A-2C3594879E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE0613-A1DB-4745-8799-6A86F156AF9E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5761,13 @@
         <v>15409</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5752,13 +5776,13 @@
         <v>16462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5767,13 +5791,13 @@
         <v>31871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5812,13 @@
         <v>15810</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -5803,13 +5827,13 @@
         <v>18493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -5818,13 +5842,13 @@
         <v>34303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5863,13 @@
         <v>21209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -5854,13 +5878,13 @@
         <v>3585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5869,13 +5893,13 @@
         <v>24794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5914,13 @@
         <v>14844</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5905,13 +5929,13 @@
         <v>4480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>420</v>
+        <v>109</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5920,13 +5944,13 @@
         <v>19323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6018,13 @@
         <v>217329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>316</v>
@@ -6009,13 +6033,13 @@
         <v>230171</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
@@ -6024,13 +6048,13 @@
         <v>447500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6045,13 +6069,13 @@
         <v>192053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -6060,13 +6084,13 @@
         <v>124293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>342</v>
@@ -6075,13 +6099,13 @@
         <v>316346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6120,13 @@
         <v>145188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -6111,13 +6135,13 @@
         <v>62012</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -6126,13 +6150,13 @@
         <v>207200</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6171,13 @@
         <v>79553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>495</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -6162,13 +6186,13 @@
         <v>38245</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -6177,13 +6201,13 @@
         <v>117798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6275,13 @@
         <v>174190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -6266,13 +6290,13 @@
         <v>162416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>505</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -6281,13 +6305,13 @@
         <v>336606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6326,13 @@
         <v>53014</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
@@ -6317,13 +6341,13 @@
         <v>29382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>185</v>
+        <v>515</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -6332,13 +6356,13 @@
         <v>82397</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6377,13 @@
         <v>14663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -6368,13 +6392,13 @@
         <v>11934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -6383,13 +6407,13 @@
         <v>26598</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6428,13 @@
         <v>12116</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6419,13 +6443,13 @@
         <v>10043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -6434,13 +6458,13 @@
         <v>22158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>536</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6532,13 @@
         <v>406929</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="H19" s="7">
         <v>566</v>
@@ -6523,13 +6547,13 @@
         <v>409049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="M19" s="7">
         <v>890</v>
@@ -6538,13 +6562,13 @@
         <v>815977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6583,13 @@
         <v>260878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6574,13 +6598,13 @@
         <v>172168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6589,13 +6613,13 @@
         <v>433046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6634,13 @@
         <v>181060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>556</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6625,13 +6649,13 @@
         <v>77531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
@@ -6640,13 +6664,13 @@
         <v>258591</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>561</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6685,13 @@
         <v>106512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6676,13 +6700,13 @@
         <v>52767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -6691,13 +6715,13 @@
         <v>159279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6777,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6602-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B56534C-2FF2-4E0B-9B19-F227C07AE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7D5415-71EF-444A-BFE8-A4A69D6670F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D27CCB3E-810F-43D2-913B-F55F52661273}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66F2C125-679C-4F72-B731-01FC1F1A8ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>31,32%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1645 +107,1642 @@
     <t>16,13%</t>
   </si>
   <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
   </si>
   <si>
     <t>11,26%</t>
@@ -2160,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57FD98D-358C-4713-974D-B3547FD92EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB2A0D-081D-42FD-9CA1-8A1033856B70}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3229,7 +3226,7 @@
         <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -3238,13 +3235,13 @@
         <v>200095</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,7 +3297,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3319,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E76576-4EF4-4454-985C-0F939FF1FB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72434AE2-3CC6-4D93-A97F-7D05D99C6DE1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3336,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3443,13 +3440,13 @@
         <v>38228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -3458,13 +3455,13 @@
         <v>78714</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -3473,13 +3470,13 @@
         <v>116942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3491,13 @@
         <v>53240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3509,13 +3506,13 @@
         <v>37830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -3524,13 +3521,13 @@
         <v>91071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3542,13 @@
         <v>43350</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3560,13 +3557,13 @@
         <v>6451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -3575,13 +3572,13 @@
         <v>49801</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3593,13 @@
         <v>48169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3611,13 +3608,13 @@
         <v>16982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -3626,13 +3623,13 @@
         <v>65151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,28 +3697,28 @@
         <v>280886</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>348305</v>
+        <v>348304</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>582</v>
@@ -3730,13 +3727,13 @@
         <v>629191</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,28 +3748,28 @@
         <v>253335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
       </c>
       <c r="I10" s="7">
-        <v>130755</v>
+        <v>130754</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>369</v>
@@ -3781,13 +3778,13 @@
         <v>384090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3799,13 @@
         <v>229367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3817,13 +3814,13 @@
         <v>44083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -3832,13 +3829,13 @@
         <v>273450</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3850,13 @@
         <v>148959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -3868,13 +3865,13 @@
         <v>48446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -3883,13 +3880,13 @@
         <v>197406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3913,7 @@
         <v>534</v>
       </c>
       <c r="I13" s="7">
-        <v>571589</v>
+        <v>571588</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3957,13 +3954,13 @@
         <v>193932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -3972,13 +3969,13 @@
         <v>165376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>325</v>
@@ -3987,13 +3984,13 @@
         <v>359307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4005,13 @@
         <v>75342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -4023,13 +4020,13 @@
         <v>54869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>119</v>
@@ -4038,13 +4035,13 @@
         <v>130211</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4056,13 @@
         <v>36477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4074,13 +4071,13 @@
         <v>12342</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4089,13 +4086,13 @@
         <v>48819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4107,13 @@
         <v>9543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4125,13 +4122,13 @@
         <v>2310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4140,13 +4137,13 @@
         <v>11853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4211,13 @@
         <v>513046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>546</v>
@@ -4229,13 +4226,13 @@
         <v>592394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>1017</v>
@@ -4244,13 +4241,13 @@
         <v>1105440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4262,13 @@
         <v>381918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4280,13 +4277,13 @@
         <v>223454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>574</v>
@@ -4295,13 +4292,13 @@
         <v>605372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4313,13 @@
         <v>309195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -4331,13 +4328,13 @@
         <v>62876</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>351</v>
@@ -4346,13 +4343,13 @@
         <v>372071</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4364,13 @@
         <v>206672</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -4382,13 +4379,13 @@
         <v>67739</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
@@ -4397,13 +4394,13 @@
         <v>274410</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,7 +4456,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85038A33-735E-4F1D-A3D2-DCCEB4A47A75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35F6638-7C2D-48B2-8883-CE95760C4367}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4495,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4602,13 +4599,13 @@
         <v>24996</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4617,10 +4614,10 @@
         <v>38040</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>305</v>
@@ -4707,10 +4704,10 @@
         <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4719,13 +4716,13 @@
         <v>6917</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -4734,13 +4731,13 @@
         <v>39016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4752,13 @@
         <v>50942</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4770,13 +4767,13 @@
         <v>16894</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -4785,13 +4782,13 @@
         <v>67836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4856,13 @@
         <v>255176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H9" s="7">
         <v>318</v>
@@ -4874,28 +4871,28 @@
         <v>320702</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M9" s="7">
         <v>559</v>
       </c>
       <c r="N9" s="7">
-        <v>575877</v>
+        <v>575878</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4907,13 @@
         <v>257963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -4925,28 +4922,28 @@
         <v>179117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>414</v>
       </c>
       <c r="N10" s="7">
-        <v>437079</v>
+        <v>437080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4958,13 @@
         <v>231446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -4976,28 +4973,28 @@
         <v>92688</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
       </c>
       <c r="N11" s="7">
-        <v>324133</v>
+        <v>324134</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5009,13 @@
         <v>176888</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>360</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -5027,13 +5024,13 @@
         <v>57364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>216</v>
@@ -5042,13 +5039,13 @@
         <v>234252</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5087,7 @@
         <v>1497</v>
       </c>
       <c r="N13" s="7">
-        <v>1571342</v>
+        <v>1571343</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -5116,13 +5113,13 @@
         <v>183570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>194</v>
@@ -5131,13 +5128,13 @@
         <v>199185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -5146,13 +5143,13 @@
         <v>382756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5164,13 @@
         <v>111746</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>68</v>
@@ -5182,13 +5179,13 @@
         <v>69680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>172</v>
@@ -5197,13 +5194,13 @@
         <v>181426</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5215,13 @@
         <v>35247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5233,7 +5230,7 @@
         <v>25905</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>389</v>
@@ -5275,7 +5272,7 @@
         <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5284,13 +5281,13 @@
         <v>13683</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -5299,13 +5296,13 @@
         <v>31884</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5370,13 @@
         <v>463743</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>550</v>
@@ -5388,13 +5385,13 @@
         <v>557928</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>980</v>
@@ -5403,13 +5400,13 @@
         <v>1021670</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5421,13 @@
         <v>401639</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -5439,13 +5436,13 @@
         <v>259032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>69</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
@@ -5454,13 +5451,13 @@
         <v>660671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5472,13 @@
         <v>298792</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -5490,28 +5487,28 @@
         <v>125510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>424301</v>
+        <v>424302</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5523,13 @@
         <v>246031</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5541,13 +5538,13 @@
         <v>87941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -5556,13 +5553,13 @@
         <v>333972</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,7 +5601,7 @@
         <v>2318</v>
       </c>
       <c r="N23" s="7">
-        <v>2440614</v>
+        <v>2440615</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE0613-A1DB-4745-8799-6A86F156AF9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153E010-04BC-4F8A-AF68-C63068CF951A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5651,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5758,13 @@
         <v>15409</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5776,13 +5773,13 @@
         <v>16462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5791,13 +5788,13 @@
         <v>31871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5809,13 @@
         <v>15810</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -5827,13 +5824,13 @@
         <v>18493</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -5842,13 +5839,13 @@
         <v>34303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5860,13 @@
         <v>21209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -5878,13 +5875,13 @@
         <v>3585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5893,13 +5890,13 @@
         <v>24794</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5911,13 @@
         <v>14844</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5929,7 +5926,7 @@
         <v>4480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>465</v>
@@ -6021,10 +6018,10 @@
         <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>316</v>
@@ -6033,13 +6030,13 @@
         <v>230171</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
@@ -6048,13 +6045,13 @@
         <v>447500</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6066,13 @@
         <v>192053</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -6084,13 +6081,13 @@
         <v>124293</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>342</v>
@@ -6099,13 +6096,13 @@
         <v>316346</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6117,13 @@
         <v>145188</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -6135,13 +6132,13 @@
         <v>62012</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -6150,13 +6147,13 @@
         <v>207200</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,7 +6168,7 @@
         <v>79553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>497</v>
@@ -6186,13 +6183,13 @@
         <v>38245</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>148</v>
+        <v>498</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -6201,13 +6198,13 @@
         <v>117798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6272,13 @@
         <v>174190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -6290,13 +6287,13 @@
         <v>162416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -6305,13 +6302,13 @@
         <v>336606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6323,13 @@
         <v>53014</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
@@ -6341,13 +6338,13 @@
         <v>29382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -6356,13 +6353,13 @@
         <v>82397</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>518</v>
+        <v>220</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,10 +6374,10 @@
         <v>14663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>522</v>
@@ -6428,13 +6425,13 @@
         <v>12116</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6443,13 +6440,13 @@
         <v>10043</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -6458,13 +6455,13 @@
         <v>22158</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,13 +6529,13 @@
         <v>406929</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H19" s="7">
         <v>566</v>
@@ -6547,13 +6544,13 @@
         <v>409049</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>542</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>543</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>890</v>
@@ -6562,13 +6559,13 @@
         <v>815977</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6580,13 @@
         <v>260878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>549</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6598,13 +6595,13 @@
         <v>172168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6613,13 +6610,13 @@
         <v>433046</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6631,13 @@
         <v>181060</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6649,13 +6646,13 @@
         <v>77531</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
@@ -6664,13 +6661,13 @@
         <v>258591</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6682,13 @@
         <v>106512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>561</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6700,13 +6697,13 @@
         <v>52767</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -6715,13 +6712,13 @@
         <v>159279</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,7 +6774,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6602-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7D5415-71EF-444A-BFE8-A4A69D6670F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B19846-066C-4189-9233-B3459571CD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66F2C125-679C-4F72-B731-01FC1F1A8ED1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F1EEA59-388C-4A40-91FF-A30F014BDFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>31,32%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>59,35%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1645 +107,1624 @@
     <t>16,13%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>12,88%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
     <t>42,59%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>53,76%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>48,95%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>22,36%</t>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>28,51%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>9,27%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>7,97%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB2A0D-081D-42FD-9CA1-8A1033856B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8839B6-10D5-41A3-AA1B-D3F1FBABD7C8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3121,10 +3100,10 @@
         <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>548</v>
@@ -3133,13 +3112,13 @@
         <v>580877</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3133,13 @@
         <v>494022</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -3169,13 +3148,13 @@
         <v>68301</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3184,13 +3163,13 @@
         <v>562323</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3184,13 @@
         <v>161384</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3220,13 +3199,13 @@
         <v>38711</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -3235,13 +3214,13 @@
         <v>200095</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3262,7 @@
         <v>2807</v>
       </c>
       <c r="N23" s="7">
-        <v>2931924</v>
+        <v>2931925</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -3297,7 +3276,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72434AE2-3CC6-4D93-A97F-7D05D99C6DE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D41D49B-4997-4231-B7F3-41A459616862}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3333,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3440,13 +3419,13 @@
         <v>38228</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -3455,13 +3434,13 @@
         <v>78714</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>110</v>
@@ -3470,13 +3449,13 @@
         <v>116942</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3470,13 @@
         <v>53240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3506,13 +3485,13 @@
         <v>37830</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>86</v>
@@ -3521,13 +3500,13 @@
         <v>91071</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3521,13 @@
         <v>43350</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3557,13 +3536,13 @@
         <v>6451</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -3572,13 +3551,13 @@
         <v>49801</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3572,13 @@
         <v>48169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -3608,13 +3587,13 @@
         <v>16982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -3623,13 +3602,13 @@
         <v>65151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3676,13 @@
         <v>280886</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>325</v>
@@ -3712,13 +3691,13 @@
         <v>348304</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>582</v>
@@ -3727,13 +3706,13 @@
         <v>629191</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3727,13 @@
         <v>253335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -3763,13 +3742,13 @@
         <v>130754</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>369</v>
@@ -3778,13 +3757,13 @@
         <v>384090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3778,13 @@
         <v>229367</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3814,13 +3793,13 @@
         <v>44083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -3829,13 +3808,13 @@
         <v>273450</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3829,13 @@
         <v>148959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -3865,13 +3844,13 @@
         <v>48446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -3880,13 +3859,13 @@
         <v>197406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3933,13 @@
         <v>193932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -3969,13 +3948,13 @@
         <v>165376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>325</v>
@@ -3984,13 +3963,13 @@
         <v>359307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3984,13 @@
         <v>75342</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -4020,13 +3999,13 @@
         <v>54869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M15" s="7">
         <v>119</v>
@@ -4035,13 +4014,13 @@
         <v>130211</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4035,13 @@
         <v>36477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4071,13 +4050,13 @@
         <v>12342</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4086,13 +4065,13 @@
         <v>48819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4086,13 @@
         <v>9543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4122,13 +4101,13 @@
         <v>2310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4137,13 +4116,13 @@
         <v>11853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4190,13 @@
         <v>513046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>546</v>
@@ -4226,13 +4205,13 @@
         <v>592394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>1017</v>
@@ -4241,13 +4220,13 @@
         <v>1105440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4241,13 @@
         <v>381918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4277,28 +4256,28 @@
         <v>223454</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>574</v>
       </c>
       <c r="N20" s="7">
-        <v>605372</v>
+        <v>605373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,10 +4295,10 @@
         <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -4328,13 +4307,13 @@
         <v>62876</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>351</v>
@@ -4343,13 +4322,13 @@
         <v>372071</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4343,13 @@
         <v>206672</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -4379,28 +4358,28 @@
         <v>67739</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>256</v>
       </c>
       <c r="N22" s="7">
-        <v>274410</v>
+        <v>274411</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4391,7 @@
         <v>1324</v>
       </c>
       <c r="D23" s="7">
-        <v>1410830</v>
+        <v>1410831</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4442,7 +4421,7 @@
         <v>2198</v>
       </c>
       <c r="N23" s="7">
-        <v>2357293</v>
+        <v>2357294</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -4456,7 +4435,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4475,7 +4454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35F6638-7C2D-48B2-8883-CE95760C4367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E8E3F3-97F3-466E-B8B4-A007F7FF4DB2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4599,13 +4578,13 @@
         <v>24996</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -4614,10 +4593,10 @@
         <v>38040</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>305</v>
@@ -4704,10 +4683,10 @@
         <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4716,13 +4695,13 @@
         <v>6917</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -4731,7 +4710,7 @@
         <v>39016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>323</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>324</v>
@@ -4883,7 +4862,7 @@
         <v>559</v>
       </c>
       <c r="N9" s="7">
-        <v>575878</v>
+        <v>575877</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>341</v>
@@ -4907,13 +4886,13 @@
         <v>257963</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -4922,28 +4901,28 @@
         <v>179117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>414</v>
       </c>
       <c r="N10" s="7">
-        <v>437080</v>
+        <v>437079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4937,13 @@
         <v>231446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -4973,28 +4952,28 @@
         <v>92688</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>308</v>
       </c>
       <c r="N11" s="7">
-        <v>324134</v>
+        <v>324133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +4988,13 @@
         <v>176888</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -5024,13 +5003,13 @@
         <v>57364</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>216</v>
@@ -5039,13 +5018,13 @@
         <v>234252</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5066,7 @@
         <v>1497</v>
       </c>
       <c r="N13" s="7">
-        <v>1571343</v>
+        <v>1571342</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -5113,13 +5092,13 @@
         <v>183570</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>194</v>
@@ -5128,13 +5107,13 @@
         <v>199185</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -5143,13 +5122,13 @@
         <v>382756</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +5143,10 @@
         <v>111746</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>379</v>
@@ -5230,13 +5209,13 @@
         <v>25905</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -5245,10 +5224,10 @@
         <v>61152</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>393</v>
@@ -5269,10 +5248,10 @@
         <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5281,13 +5260,13 @@
         <v>13683</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -5296,13 +5275,13 @@
         <v>31884</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5349,13 @@
         <v>463743</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>550</v>
@@ -5385,13 +5364,13 @@
         <v>557928</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>980</v>
@@ -5400,13 +5379,13 @@
         <v>1021670</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5400,13 @@
         <v>401639</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -5436,13 +5415,13 @@
         <v>259032</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>69</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>627</v>
@@ -5451,13 +5430,13 @@
         <v>660671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5451,13 @@
         <v>298792</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -5487,28 +5466,28 @@
         <v>125510</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>424302</v>
+        <v>424301</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5502,13 @@
         <v>246031</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -5538,13 +5517,13 @@
         <v>87941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>308</v>
@@ -5553,13 +5532,13 @@
         <v>333972</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,7 +5580,7 @@
         <v>2318</v>
       </c>
       <c r="N23" s="7">
-        <v>2440615</v>
+        <v>2440614</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5615,7 +5594,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5634,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153E010-04BC-4F8A-AF68-C63068CF951A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B2B09-C3A3-42F5-A69A-B37AB7D51D3B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5651,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,13 +5737,13 @@
         <v>15409</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5773,13 +5752,13 @@
         <v>16462</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5788,13 +5767,13 @@
         <v>31871</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,10 +5788,10 @@
         <v>15810</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>445</v>
@@ -5842,10 +5821,10 @@
         <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5839,13 @@
         <v>21209</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -5875,13 +5854,13 @@
         <v>3585</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5890,13 +5869,13 @@
         <v>24794</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>459</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>460</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5890,13 @@
         <v>14844</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5926,13 +5905,13 @@
         <v>4480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -5941,13 +5920,13 @@
         <v>19323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +5994,13 @@
         <v>217329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>316</v>
@@ -6030,13 +6009,13 @@
         <v>230171</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
@@ -6045,13 +6024,13 @@
         <v>447500</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6045,13 @@
         <v>192053</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
@@ -6081,13 +6060,13 @@
         <v>124293</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M10" s="7">
         <v>342</v>
@@ -6096,13 +6075,13 @@
         <v>316346</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6096,13 @@
         <v>145188</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -6132,13 +6111,13 @@
         <v>62012</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -6147,13 +6126,13 @@
         <v>207200</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>495</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6147,13 @@
         <v>79553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -6183,13 +6162,13 @@
         <v>38245</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>498</v>
+        <v>147</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
@@ -6198,13 +6177,13 @@
         <v>117798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6251,13 @@
         <v>174190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -6287,13 +6266,13 @@
         <v>162416</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -6302,13 +6281,13 @@
         <v>336606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6302,13 @@
         <v>53014</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>514</v>
+        <v>423</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
@@ -6338,13 +6317,13 @@
         <v>29382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>517</v>
+        <v>185</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
@@ -6353,13 +6332,13 @@
         <v>82397</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>220</v>
+        <v>515</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6353,13 @@
         <v>14663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -6389,13 +6368,13 @@
         <v>11934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -6404,13 +6383,13 @@
         <v>26598</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,13 +6404,13 @@
         <v>12116</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6440,13 +6419,13 @@
         <v>10043</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -6455,13 +6434,13 @@
         <v>22158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6508,13 @@
         <v>406929</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H19" s="7">
         <v>566</v>
@@ -6544,13 +6523,13 @@
         <v>409049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
         <v>890</v>
@@ -6559,13 +6538,13 @@
         <v>815977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6559,13 @@
         <v>260878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -6595,13 +6574,13 @@
         <v>172168</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6610,13 +6589,13 @@
         <v>433046</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6610,13 @@
         <v>181060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>554</v>
+        <v>24</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6646,13 +6625,13 @@
         <v>77531</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
@@ -6661,13 +6640,13 @@
         <v>258591</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>559</v>
+        <v>426</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>553</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6661,13 @@
         <v>106512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6697,13 +6676,13 @@
         <v>52767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -6712,13 +6691,13 @@
         <v>159279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6753,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6602-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4B19846-066C-4189-9233-B3459571CD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A549E880-1018-4528-8739-BD0AB8395920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F1EEA59-388C-4A40-91FF-A30F014BDFDE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D6A75FD-3202-464B-AB60-1DD61B17C42F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="554">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -1343,388 +1343,364 @@
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
   </si>
   <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8839B6-10D5-41A3-AA1B-D3F1FBABD7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ED4761-4013-48AC-923B-ACEC77B17006}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2786,7 +2762,7 @@
         <v>236</v>
       </c>
       <c r="I14" s="7">
-        <v>245167</v>
+        <v>245168</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2990,7 +2966,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3295,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D41D49B-4997-4231-B7F3-41A459616862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF4C258-CDCF-45B3-9EDD-7CB2BA826433}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,7 +4244,7 @@
         <v>574</v>
       </c>
       <c r="N20" s="7">
-        <v>605373</v>
+        <v>605372</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>280</v>
@@ -4370,7 +4346,7 @@
         <v>256</v>
       </c>
       <c r="N22" s="7">
-        <v>274411</v>
+        <v>274410</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>296</v>
@@ -4421,7 +4397,7 @@
         <v>2198</v>
       </c>
       <c r="N23" s="7">
-        <v>2357294</v>
+        <v>2357293</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -4454,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E8E3F3-97F3-466E-B8B4-A007F7FF4DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94290FBC-9C30-4376-B9E1-E59D6D3D83DB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5478,7 +5454,7 @@
         <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>424301</v>
+        <v>424302</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>422</v>
@@ -5580,7 +5556,7 @@
         <v>2318</v>
       </c>
       <c r="N23" s="7">
-        <v>2440614</v>
+        <v>2440615</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5613,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B2B09-C3A3-42F5-A69A-B37AB7D51D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5305935-31F5-46CC-84DD-680E59479D16}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5734,7 +5710,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>15409</v>
+        <v>14842</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>434</v>
@@ -5749,7 +5725,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>16462</v>
+        <v>15057</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>437</v>
@@ -5764,7 +5740,7 @@
         <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>31871</v>
+        <v>29899</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>440</v>
@@ -5785,43 +5761,43 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>15810</v>
+        <v>16232</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>18493</v>
+        <v>16570</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>34303</v>
+        <v>32802</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>450</v>
@@ -5836,7 +5812,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>21209</v>
+        <v>20175</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>451</v>
@@ -5851,31 +5827,31 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>3585</v>
+        <v>3315</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
       </c>
       <c r="N6" s="7">
-        <v>24794</v>
+        <v>23490</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,25 +5863,25 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>14844</v>
+        <v>14165</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4480</v>
+        <v>4181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>462</v>
@@ -5917,7 +5893,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>19323</v>
+        <v>18346</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>464</v>
@@ -5938,7 +5914,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5953,7 +5929,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5968,7 +5944,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5991,46 +5967,46 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>217329</v>
+        <v>404111</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>230171</v>
+        <v>212041</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
       </c>
       <c r="N9" s="7">
-        <v>447500</v>
+        <v>616152</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,46 +6018,46 @@
         <v>177</v>
       </c>
       <c r="D10" s="7">
-        <v>192053</v>
+        <v>188330</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>165</v>
       </c>
       <c r="I10" s="7">
-        <v>124293</v>
+        <v>112944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>342</v>
       </c>
       <c r="N10" s="7">
-        <v>316346</v>
+        <v>301274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,46 +6069,46 @@
         <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>145188</v>
+        <v>136666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>62012</v>
+        <v>79774</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
       </c>
       <c r="N11" s="7">
-        <v>207200</v>
+        <v>216440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,46 +6120,46 @@
         <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>79553</v>
+        <v>76255</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>38245</v>
+        <v>35387</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>124</v>
       </c>
       <c r="N12" s="7">
-        <v>117798</v>
+        <v>111642</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6171,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>634123</v>
+        <v>805362</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6210,7 +6186,7 @@
         <v>598</v>
       </c>
       <c r="I13" s="7">
-        <v>454721</v>
+        <v>440146</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6225,7 +6201,7 @@
         <v>1123</v>
       </c>
       <c r="N13" s="7">
-        <v>1088844</v>
+        <v>1245508</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6248,46 +6224,46 @@
         <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>174190</v>
+        <v>166197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>162416</v>
+        <v>152006</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
       </c>
       <c r="N14" s="7">
-        <v>336606</v>
+        <v>318204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,46 +6275,46 @@
         <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>53014</v>
+        <v>50794</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>29382</v>
+        <v>26763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>185</v>
+        <v>509</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>89</v>
       </c>
       <c r="N15" s="7">
-        <v>82397</v>
+        <v>77556</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,46 +6326,46 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>14663</v>
+        <v>13707</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>11934</v>
+        <v>10959</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>519</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>26598</v>
+        <v>24665</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>524</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,46 +6377,46 @@
         <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>12116</v>
+        <v>11362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>10043</v>
+        <v>9338</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>22158</v>
+        <v>20700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6428,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6467,7 +6443,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6482,7 +6458,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6505,46 +6481,46 @@
         <v>324</v>
       </c>
       <c r="D19" s="7">
-        <v>406929</v>
+        <v>585150</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>566</v>
       </c>
       <c r="I19" s="7">
-        <v>409049</v>
+        <v>379104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M19" s="7">
         <v>890</v>
       </c>
       <c r="N19" s="7">
-        <v>815977</v>
+        <v>964255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,46 +6532,46 @@
         <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>260878</v>
+        <v>255356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
       </c>
       <c r="I20" s="7">
-        <v>172168</v>
+        <v>156277</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
       </c>
       <c r="N20" s="7">
-        <v>433046</v>
+        <v>411633</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,46 +6583,46 @@
         <v>168</v>
       </c>
       <c r="D21" s="7">
-        <v>181060</v>
+        <v>170548</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
       </c>
       <c r="I21" s="7">
-        <v>77531</v>
+        <v>94048</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="M21" s="7">
         <v>254</v>
       </c>
       <c r="N21" s="7">
-        <v>258591</v>
+        <v>264595</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>544</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>553</v>
+        <v>321</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,46 +6634,46 @@
         <v>99</v>
       </c>
       <c r="D22" s="7">
-        <v>106512</v>
+        <v>101781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
       </c>
       <c r="I22" s="7">
-        <v>52767</v>
+        <v>48906</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>550</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
       </c>
       <c r="N22" s="7">
-        <v>159279</v>
+        <v>150688</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,7 +6685,7 @@
         <v>832</v>
       </c>
       <c r="D23" s="7">
-        <v>955379</v>
+        <v>1112835</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6724,7 +6700,7 @@
         <v>960</v>
       </c>
       <c r="I23" s="7">
-        <v>711516</v>
+        <v>678335</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6739,7 +6715,7 @@
         <v>1792</v>
       </c>
       <c r="N23" s="7">
-        <v>1666894</v>
+        <v>1791170</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
